--- a/Mentee_Mentor_AssignedbyRank_Anonym.xlsx
+++ b/Mentee_Mentor_AssignedbyRank_Anonym.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>Mentee</t>
   </si>
@@ -191,9 +191,6 @@
   </si>
   <si>
     <t>12402</t>
-  </si>
-  <si>
-    <t>12403</t>
   </si>
   <si>
     <t>12404</t>
@@ -649,7 +646,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K78"/>
+  <dimension ref="A1:K77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -664,34 +661,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -699,34 +696,34 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>22397</v>
+        <v>22389</v>
       </c>
       <c r="C2">
+        <v>22395</v>
+      </c>
+      <c r="D2">
+        <v>22404</v>
+      </c>
+      <c r="E2">
+        <v>22374</v>
+      </c>
+      <c r="F2">
+        <v>22424</v>
+      </c>
+      <c r="G2">
+        <v>22415</v>
+      </c>
+      <c r="H2">
+        <v>22359</v>
+      </c>
+      <c r="I2">
+        <v>22422</v>
+      </c>
+      <c r="J2">
         <v>22423</v>
       </c>
-      <c r="D2">
-        <v>22415</v>
-      </c>
-      <c r="E2">
-        <v>22342</v>
-      </c>
-      <c r="F2">
-        <v>22374</v>
-      </c>
-      <c r="G2">
-        <v>22359</v>
-      </c>
-      <c r="H2">
-        <v>22343</v>
-      </c>
-      <c r="I2">
-        <v>22412</v>
-      </c>
-      <c r="J2">
-        <v>22395</v>
-      </c>
       <c r="K2">
-        <v>22422</v>
+        <v>22365</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -734,34 +731,34 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>22351</v>
+      </c>
+      <c r="C3">
+        <v>22344</v>
+      </c>
+      <c r="D3">
         <v>22356</v>
       </c>
-      <c r="C3">
-        <v>22416</v>
-      </c>
-      <c r="D3">
-        <v>22351</v>
-      </c>
       <c r="E3">
+        <v>22426</v>
+      </c>
+      <c r="F3">
+        <v>22415</v>
+      </c>
+      <c r="G3">
+        <v>22411</v>
+      </c>
+      <c r="H3">
+        <v>22413</v>
+      </c>
+      <c r="I3">
+        <v>22427</v>
+      </c>
+      <c r="J3">
         <v>22404</v>
       </c>
-      <c r="F3">
-        <v>22352</v>
-      </c>
-      <c r="G3">
-        <v>22415</v>
-      </c>
-      <c r="H3">
-        <v>22411</v>
-      </c>
-      <c r="I3">
-        <v>22365</v>
-      </c>
-      <c r="J3">
-        <v>22413</v>
-      </c>
       <c r="K3">
-        <v>22344</v>
+        <v>22406</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -769,34 +766,34 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>22428</v>
+        <v>22422</v>
       </c>
       <c r="C4">
+        <v>22349</v>
+      </c>
+      <c r="D4">
         <v>22410</v>
       </c>
-      <c r="D4">
-        <v>22356</v>
-      </c>
       <c r="E4">
-        <v>22352</v>
+        <v>22387</v>
       </c>
       <c r="F4">
-        <v>22393</v>
+        <v>22400</v>
       </c>
       <c r="G4">
-        <v>22401</v>
+        <v>22426</v>
       </c>
       <c r="H4">
-        <v>22372</v>
+        <v>22404</v>
       </c>
       <c r="I4">
-        <v>22427</v>
+        <v>22374</v>
       </c>
       <c r="J4">
-        <v>22387</v>
+        <v>22395</v>
       </c>
       <c r="K4">
-        <v>22404</v>
+        <v>22417</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -810,28 +807,28 @@
         <v>22400</v>
       </c>
       <c r="D5">
-        <v>22352</v>
+        <v>22419</v>
       </c>
       <c r="E5">
-        <v>22414</v>
+        <v>22423</v>
       </c>
       <c r="F5">
-        <v>22419</v>
+        <v>22343</v>
       </c>
       <c r="G5">
         <v>22387</v>
       </c>
       <c r="H5">
-        <v>22343</v>
+        <v>22395</v>
       </c>
       <c r="I5">
         <v>22417</v>
       </c>
       <c r="J5">
-        <v>22395</v>
+        <v>22365</v>
       </c>
       <c r="K5">
-        <v>22365</v>
+        <v>22414</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -839,34 +836,34 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>22355</v>
+        <v>22381</v>
       </c>
       <c r="C6">
-        <v>22427</v>
+        <v>22369</v>
       </c>
       <c r="D6">
-        <v>22342</v>
+        <v>22343</v>
       </c>
       <c r="E6">
         <v>22404</v>
       </c>
       <c r="F6">
-        <v>22365</v>
+        <v>22419</v>
       </c>
       <c r="G6">
-        <v>22398</v>
+        <v>22361</v>
       </c>
       <c r="H6">
         <v>22346</v>
       </c>
       <c r="I6">
-        <v>22381</v>
+        <v>22358</v>
       </c>
       <c r="J6">
-        <v>22419</v>
+        <v>22396</v>
       </c>
       <c r="K6">
-        <v>22366</v>
+        <v>22392</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -874,34 +871,34 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>22393</v>
+        <v>22358</v>
       </c>
       <c r="C7">
+        <v>22346</v>
+      </c>
+      <c r="D7">
+        <v>22425</v>
+      </c>
+      <c r="E7">
+        <v>22351</v>
+      </c>
+      <c r="F7">
+        <v>22411</v>
+      </c>
+      <c r="G7">
+        <v>22342</v>
+      </c>
+      <c r="H7">
         <v>22357</v>
       </c>
-      <c r="D7">
-        <v>22374</v>
-      </c>
-      <c r="E7">
-        <v>22402</v>
-      </c>
-      <c r="F7">
-        <v>22424</v>
-      </c>
-      <c r="G7">
-        <v>22411</v>
-      </c>
-      <c r="H7">
+      <c r="I7">
+        <v>22409</v>
+      </c>
+      <c r="J7">
         <v>22341</v>
       </c>
-      <c r="I7">
-        <v>22408</v>
-      </c>
-      <c r="J7">
-        <v>22398</v>
-      </c>
       <c r="K7">
-        <v>22425</v>
+        <v>22369</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -909,34 +906,34 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>22347</v>
+        <v>22412</v>
       </c>
       <c r="C8">
-        <v>22416</v>
+        <v>22406</v>
       </c>
       <c r="D8">
-        <v>22365</v>
+        <v>22411</v>
       </c>
       <c r="E8">
+        <v>22395</v>
+      </c>
+      <c r="F8">
+        <v>22349</v>
+      </c>
+      <c r="G8">
         <v>22424</v>
       </c>
-      <c r="F8">
-        <v>22415</v>
-      </c>
-      <c r="G8">
-        <v>22374</v>
-      </c>
       <c r="H8">
-        <v>22423</v>
+        <v>22372</v>
       </c>
       <c r="I8">
         <v>22422</v>
       </c>
       <c r="J8">
-        <v>22404</v>
+        <v>22415</v>
       </c>
       <c r="K8">
-        <v>22395</v>
+        <v>22393</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -944,34 +941,34 @@
         <v>8</v>
       </c>
       <c r="B9">
+        <v>22428</v>
+      </c>
+      <c r="C9">
         <v>22376</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>22343</v>
       </c>
-      <c r="D9">
+      <c r="E9">
+        <v>22351</v>
+      </c>
+      <c r="F9">
         <v>22417</v>
       </c>
-      <c r="E9">
-        <v>22346</v>
-      </c>
-      <c r="F9">
-        <v>22422</v>
-      </c>
       <c r="G9">
-        <v>22351</v>
+        <v>22356</v>
       </c>
       <c r="H9">
-        <v>22350</v>
+        <v>22388</v>
       </c>
       <c r="I9">
-        <v>22356</v>
+        <v>22373</v>
       </c>
       <c r="J9">
-        <v>22347</v>
+        <v>22349</v>
       </c>
       <c r="K9">
-        <v>22428</v>
+        <v>22406</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -988,19 +985,19 @@
         <v>22354</v>
       </c>
       <c r="E10">
-        <v>22396</v>
+        <v>22383</v>
       </c>
       <c r="F10">
         <v>22381</v>
       </c>
       <c r="G10">
+        <v>22396</v>
+      </c>
+      <c r="H10">
         <v>22359</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>22419</v>
-      </c>
-      <c r="I10">
-        <v>22383</v>
       </c>
       <c r="J10">
         <v>22408</v>
@@ -1014,34 +1011,34 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>22410</v>
+        <v>22401</v>
       </c>
       <c r="C11">
+        <v>22427</v>
+      </c>
+      <c r="D11">
+        <v>22402</v>
+      </c>
+      <c r="E11">
+        <v>22363</v>
+      </c>
+      <c r="F11">
         <v>22424</v>
       </c>
-      <c r="D11">
+      <c r="G11">
+        <v>22373</v>
+      </c>
+      <c r="H11">
         <v>22400</v>
       </c>
-      <c r="E11">
+      <c r="I11">
+        <v>22422</v>
+      </c>
+      <c r="J11">
         <v>22404</v>
       </c>
-      <c r="F11">
-        <v>22422</v>
-      </c>
-      <c r="G11">
-        <v>22403</v>
-      </c>
-      <c r="H11">
-        <v>22365</v>
-      </c>
-      <c r="I11">
-        <v>22427</v>
-      </c>
-      <c r="J11">
-        <v>22423</v>
-      </c>
       <c r="K11">
-        <v>22374</v>
+        <v>22393</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1052,31 +1049,31 @@
         <v>22374</v>
       </c>
       <c r="C12">
+        <v>22424</v>
+      </c>
+      <c r="D12">
         <v>22393</v>
       </c>
-      <c r="D12">
+      <c r="E12">
+        <v>22416</v>
+      </c>
+      <c r="F12">
+        <v>22358</v>
+      </c>
+      <c r="G12">
+        <v>22403</v>
+      </c>
+      <c r="H12">
+        <v>22365</v>
+      </c>
+      <c r="I12">
         <v>22373</v>
-      </c>
-      <c r="E12">
-        <v>22365</v>
-      </c>
-      <c r="F12">
-        <v>22410</v>
-      </c>
-      <c r="G12">
-        <v>22424</v>
-      </c>
-      <c r="H12">
-        <v>22400</v>
-      </c>
-      <c r="I12">
-        <v>22341</v>
       </c>
       <c r="J12">
         <v>22404</v>
       </c>
       <c r="K12">
-        <v>22427</v>
+        <v>22410</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1084,34 +1081,34 @@
         <v>12</v>
       </c>
       <c r="B13">
+        <v>22356</v>
+      </c>
+      <c r="C13">
+        <v>22406</v>
+      </c>
+      <c r="D13">
+        <v>22424</v>
+      </c>
+      <c r="E13">
+        <v>22401</v>
+      </c>
+      <c r="F13">
         <v>22415</v>
       </c>
-      <c r="C13">
-        <v>22347</v>
-      </c>
-      <c r="D13">
-        <v>22352</v>
-      </c>
-      <c r="E13">
-        <v>22395</v>
-      </c>
-      <c r="F13">
-        <v>22414</v>
-      </c>
       <c r="G13">
-        <v>22356</v>
+        <v>22423</v>
       </c>
       <c r="H13">
-        <v>22424</v>
+        <v>22411</v>
       </c>
       <c r="I13">
-        <v>22374</v>
+        <v>22349</v>
       </c>
       <c r="J13">
         <v>22416</v>
       </c>
       <c r="K13">
-        <v>22423</v>
+        <v>22374</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1119,34 +1116,34 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>22348</v>
+        <v>22372</v>
       </c>
       <c r="C14">
-        <v>22367</v>
+        <v>22416</v>
       </c>
       <c r="D14">
-        <v>22412</v>
+        <v>22369</v>
       </c>
       <c r="E14">
-        <v>22372</v>
+        <v>22392</v>
       </c>
       <c r="F14">
-        <v>22395</v>
+        <v>22371</v>
       </c>
       <c r="G14">
         <v>22349</v>
       </c>
       <c r="H14">
-        <v>22387</v>
+        <v>22412</v>
       </c>
       <c r="I14">
-        <v>22427</v>
+        <v>22388</v>
       </c>
       <c r="J14">
-        <v>22378</v>
+        <v>22342</v>
       </c>
       <c r="K14">
-        <v>22342</v>
+        <v>22395</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1157,28 +1154,28 @@
         <v>22414</v>
       </c>
       <c r="C15">
-        <v>22389</v>
+        <v>22423</v>
       </c>
       <c r="D15">
-        <v>22422</v>
+        <v>22385</v>
       </c>
       <c r="E15">
         <v>22349</v>
       </c>
       <c r="F15">
+        <v>22422</v>
+      </c>
+      <c r="G15">
+        <v>22387</v>
+      </c>
+      <c r="H15">
         <v>22415</v>
       </c>
-      <c r="G15">
-        <v>22342</v>
-      </c>
-      <c r="H15">
+      <c r="I15">
         <v>22401</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>22404</v>
-      </c>
-      <c r="J15">
-        <v>22374</v>
       </c>
       <c r="K15">
         <v>22395</v>
@@ -1189,34 +1186,34 @@
         <v>15</v>
       </c>
       <c r="B16">
+        <v>22359</v>
+      </c>
+      <c r="C16">
+        <v>22427</v>
+      </c>
+      <c r="D16">
+        <v>22393</v>
+      </c>
+      <c r="E16">
+        <v>22415</v>
+      </c>
+      <c r="F16">
+        <v>22404</v>
+      </c>
+      <c r="G16">
+        <v>22341</v>
+      </c>
+      <c r="H16">
+        <v>22394</v>
+      </c>
+      <c r="I16">
         <v>22409</v>
       </c>
-      <c r="C16">
-        <v>22425</v>
-      </c>
-      <c r="D16">
+      <c r="J16">
         <v>22357</v>
       </c>
-      <c r="E16">
-        <v>22351</v>
-      </c>
-      <c r="F16">
-        <v>22427</v>
-      </c>
-      <c r="G16">
-        <v>22359</v>
-      </c>
-      <c r="H16">
-        <v>22393</v>
-      </c>
-      <c r="I16">
-        <v>22378</v>
-      </c>
-      <c r="J16">
-        <v>22404</v>
-      </c>
       <c r="K16">
-        <v>22415</v>
+        <v>22369</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1227,31 +1224,31 @@
         <v>22383</v>
       </c>
       <c r="C17">
-        <v>22359</v>
+        <v>22385</v>
       </c>
       <c r="D17">
-        <v>22385</v>
+        <v>22342</v>
       </c>
       <c r="E17">
         <v>22405</v>
       </c>
       <c r="F17">
+        <v>22374</v>
+      </c>
+      <c r="G17">
+        <v>22396</v>
+      </c>
+      <c r="H17">
         <v>22362</v>
       </c>
-      <c r="G17">
-        <v>22342</v>
-      </c>
-      <c r="H17">
-        <v>22427</v>
-      </c>
       <c r="I17">
-        <v>22394</v>
+        <v>22359</v>
       </c>
       <c r="J17">
+        <v>22346</v>
+      </c>
+      <c r="K17">
         <v>22366</v>
-      </c>
-      <c r="K17">
-        <v>22398</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1259,34 +1256,34 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>22402</v>
+        <v>22423</v>
       </c>
       <c r="C18">
+        <v>22412</v>
+      </c>
+      <c r="D18">
+        <v>22406</v>
+      </c>
+      <c r="E18">
+        <v>22358</v>
+      </c>
+      <c r="F18">
+        <v>22352</v>
+      </c>
+      <c r="G18">
+        <v>22416</v>
+      </c>
+      <c r="H18">
+        <v>22359</v>
+      </c>
+      <c r="I18">
+        <v>22400</v>
+      </c>
+      <c r="J18">
         <v>22363</v>
       </c>
-      <c r="D18">
-        <v>22423</v>
-      </c>
-      <c r="E18">
-        <v>22412</v>
-      </c>
-      <c r="F18">
-        <v>22416</v>
-      </c>
-      <c r="G18">
-        <v>22400</v>
-      </c>
-      <c r="H18">
-        <v>22426</v>
-      </c>
-      <c r="I18">
-        <v>22359</v>
-      </c>
-      <c r="J18">
-        <v>22358</v>
-      </c>
       <c r="K18">
-        <v>22352</v>
+        <v>22409</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1294,34 +1291,34 @@
         <v>18</v>
       </c>
       <c r="B19">
+        <v>22343</v>
+      </c>
+      <c r="C19">
+        <v>22404</v>
+      </c>
+      <c r="D19">
+        <v>22411</v>
+      </c>
+      <c r="E19">
+        <v>22356</v>
+      </c>
+      <c r="F19">
+        <v>22372</v>
+      </c>
+      <c r="G19">
+        <v>22346</v>
+      </c>
+      <c r="H19">
+        <v>22417</v>
+      </c>
+      <c r="I19">
+        <v>22369</v>
+      </c>
+      <c r="J19">
+        <v>22406</v>
+      </c>
+      <c r="K19">
         <v>22403</v>
-      </c>
-      <c r="C19">
-        <v>22356</v>
-      </c>
-      <c r="D19">
-        <v>22404</v>
-      </c>
-      <c r="E19">
-        <v>22423</v>
-      </c>
-      <c r="F19">
-        <v>22346</v>
-      </c>
-      <c r="G19">
-        <v>22365</v>
-      </c>
-      <c r="H19">
-        <v>22341</v>
-      </c>
-      <c r="I19">
-        <v>22416</v>
-      </c>
-      <c r="J19">
-        <v>22411</v>
-      </c>
-      <c r="K19">
-        <v>22400</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1329,19 +1326,19 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>22423</v>
+        <v>22419</v>
       </c>
       <c r="C20">
-        <v>22419</v>
+        <v>22404</v>
       </c>
       <c r="D20">
         <v>22352</v>
       </c>
       <c r="E20">
-        <v>22394</v>
+        <v>22424</v>
       </c>
       <c r="F20">
-        <v>22424</v>
+        <v>22342</v>
       </c>
       <c r="G20">
         <v>22385</v>
@@ -1350,13 +1347,13 @@
         <v>22398</v>
       </c>
       <c r="I20">
-        <v>22404</v>
+        <v>22369</v>
       </c>
       <c r="J20">
-        <v>22427</v>
+        <v>22394</v>
       </c>
       <c r="K20">
-        <v>22415</v>
+        <v>22357</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1364,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B21">
+        <v>22379</v>
+      </c>
+      <c r="C21">
+        <v>22342</v>
+      </c>
+      <c r="D21">
+        <v>22387</v>
+      </c>
+      <c r="E21">
         <v>22366</v>
       </c>
-      <c r="C21">
-        <v>22379</v>
-      </c>
-      <c r="D21">
-        <v>22342</v>
-      </c>
-      <c r="E21">
-        <v>22349</v>
-      </c>
       <c r="F21">
-        <v>22348</v>
+        <v>22388</v>
       </c>
       <c r="G21">
+        <v>22397</v>
+      </c>
+      <c r="H21">
+        <v>22356</v>
+      </c>
+      <c r="I21">
         <v>22359</v>
       </c>
-      <c r="H21">
-        <v>22412</v>
-      </c>
-      <c r="I21">
-        <v>22356</v>
-      </c>
       <c r="J21">
+        <v>22385</v>
+      </c>
+      <c r="K21">
         <v>22346</v>
-      </c>
-      <c r="K21">
-        <v>22397</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1399,34 +1396,34 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>22378</v>
+        <v>22357</v>
       </c>
       <c r="C22">
-        <v>22427</v>
+        <v>22394</v>
       </c>
       <c r="D22">
-        <v>22398</v>
+        <v>22341</v>
       </c>
       <c r="E22">
-        <v>22357</v>
+        <v>22400</v>
       </c>
       <c r="F22">
         <v>22342</v>
       </c>
       <c r="G22">
-        <v>22341</v>
+        <v>22398</v>
       </c>
       <c r="H22">
+        <v>22405</v>
+      </c>
+      <c r="I22">
+        <v>22393</v>
+      </c>
+      <c r="J22">
+        <v>22427</v>
+      </c>
+      <c r="K22">
         <v>22385</v>
-      </c>
-      <c r="I22">
-        <v>22394</v>
-      </c>
-      <c r="J22">
-        <v>22400</v>
-      </c>
-      <c r="K22">
-        <v>22405</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1434,34 +1431,34 @@
         <v>22</v>
       </c>
       <c r="B23">
+        <v>22384</v>
+      </c>
+      <c r="C23">
+        <v>22412</v>
+      </c>
+      <c r="D23">
+        <v>22347</v>
+      </c>
+      <c r="E23">
         <v>22381</v>
       </c>
-      <c r="C23">
-        <v>22379</v>
-      </c>
-      <c r="D23">
+      <c r="F23">
+        <v>22385</v>
+      </c>
+      <c r="G23">
+        <v>22372</v>
+      </c>
+      <c r="H23">
+        <v>22388</v>
+      </c>
+      <c r="I23">
         <v>22387</v>
       </c>
-      <c r="E23">
+      <c r="J23">
+        <v>22359</v>
+      </c>
+      <c r="K23">
         <v>22396</v>
-      </c>
-      <c r="F23">
-        <v>22365</v>
-      </c>
-      <c r="G23">
-        <v>22384</v>
-      </c>
-      <c r="H23">
-        <v>22359</v>
-      </c>
-      <c r="I23">
-        <v>22412</v>
-      </c>
-      <c r="J23">
-        <v>22342</v>
-      </c>
-      <c r="K23">
-        <v>22427</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1469,34 +1466,34 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>22426</v>
+        <v>22405</v>
       </c>
       <c r="C24">
         <v>22398</v>
       </c>
       <c r="D24">
-        <v>22393</v>
+        <v>22391</v>
       </c>
       <c r="E24">
+        <v>22400</v>
+      </c>
+      <c r="F24">
+        <v>22357</v>
+      </c>
+      <c r="G24">
+        <v>22385</v>
+      </c>
+      <c r="H24">
+        <v>22341</v>
+      </c>
+      <c r="I24">
         <v>22427</v>
       </c>
-      <c r="F24">
+      <c r="J24">
+        <v>22394</v>
+      </c>
+      <c r="K24">
         <v>22342</v>
-      </c>
-      <c r="G24">
-        <v>22378</v>
-      </c>
-      <c r="H24">
-        <v>22408</v>
-      </c>
-      <c r="I24">
-        <v>22400</v>
-      </c>
-      <c r="J24">
-        <v>22357</v>
-      </c>
-      <c r="K24">
-        <v>22341</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1504,10 +1501,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>22427</v>
+        <v>22342</v>
       </c>
       <c r="C25">
-        <v>22398</v>
+        <v>22405</v>
       </c>
       <c r="D25">
         <v>22393</v>
@@ -1516,22 +1513,22 @@
         <v>22385</v>
       </c>
       <c r="F25">
+        <v>22398</v>
+      </c>
+      <c r="G25">
+        <v>22341</v>
+      </c>
+      <c r="H25">
         <v>22394</v>
       </c>
-      <c r="G25">
-        <v>22378</v>
-      </c>
-      <c r="H25">
-        <v>22408</v>
-      </c>
       <c r="I25">
+        <v>22427</v>
+      </c>
+      <c r="J25">
+        <v>22400</v>
+      </c>
+      <c r="K25">
         <v>22357</v>
-      </c>
-      <c r="J25">
-        <v>22405</v>
-      </c>
-      <c r="K25">
-        <v>22342</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1539,34 +1536,34 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>22353</v>
+        <v>22371</v>
       </c>
       <c r="C26">
-        <v>22341</v>
+        <v>22372</v>
       </c>
       <c r="D26">
-        <v>22366</v>
+        <v>22385</v>
       </c>
       <c r="E26">
+        <v>22374</v>
+      </c>
+      <c r="F26">
+        <v>22350</v>
+      </c>
+      <c r="G26">
+        <v>22356</v>
+      </c>
+      <c r="H26">
+        <v>22384</v>
+      </c>
+      <c r="I26">
         <v>22359</v>
       </c>
-      <c r="F26">
-        <v>22372</v>
-      </c>
-      <c r="G26">
-        <v>22348</v>
-      </c>
-      <c r="H26">
-        <v>22356</v>
-      </c>
-      <c r="I26">
-        <v>22392</v>
-      </c>
       <c r="J26">
-        <v>22409</v>
+        <v>22396</v>
       </c>
       <c r="K26">
-        <v>22412</v>
+        <v>22404</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1574,34 +1571,34 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>22350</v>
+        <v>22349</v>
       </c>
       <c r="C27">
+        <v>22424</v>
+      </c>
+      <c r="D27">
+        <v>22351</v>
+      </c>
+      <c r="E27">
+        <v>22422</v>
+      </c>
+      <c r="F27">
+        <v>22419</v>
+      </c>
+      <c r="G27">
         <v>22415</v>
       </c>
-      <c r="D27">
+      <c r="H27">
         <v>22423</v>
       </c>
-      <c r="E27">
+      <c r="I27">
+        <v>22373</v>
+      </c>
+      <c r="J27">
         <v>22365</v>
       </c>
-      <c r="F27">
-        <v>22424</v>
-      </c>
-      <c r="G27">
-        <v>22422</v>
-      </c>
-      <c r="H27">
-        <v>22404</v>
-      </c>
-      <c r="I27">
-        <v>22351</v>
-      </c>
-      <c r="J27">
-        <v>22347</v>
-      </c>
       <c r="K27">
-        <v>22416</v>
+        <v>22372</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1609,34 +1606,34 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>22379</v>
+        <v>22348</v>
       </c>
       <c r="C28">
+        <v>22372</v>
+      </c>
+      <c r="D28">
+        <v>22396</v>
+      </c>
+      <c r="E28">
+        <v>22412</v>
+      </c>
+      <c r="F28">
+        <v>22349</v>
+      </c>
+      <c r="G28">
+        <v>22346</v>
+      </c>
+      <c r="H28">
+        <v>22427</v>
+      </c>
+      <c r="I28">
         <v>22347</v>
       </c>
-      <c r="D28">
-        <v>22427</v>
-      </c>
-      <c r="E28">
-        <v>22372</v>
-      </c>
-      <c r="F28">
-        <v>22348</v>
-      </c>
-      <c r="G28">
-        <v>22365</v>
-      </c>
-      <c r="H28">
-        <v>22412</v>
-      </c>
-      <c r="I28">
-        <v>22349</v>
-      </c>
       <c r="J28">
-        <v>22359</v>
+        <v>22387</v>
       </c>
       <c r="K28">
-        <v>22395</v>
+        <v>22385</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1644,34 +1641,34 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>22362</v>
+        <v>22355</v>
       </c>
       <c r="C29">
         <v>22374</v>
       </c>
       <c r="D29">
-        <v>22398</v>
+        <v>22385</v>
       </c>
       <c r="E29">
-        <v>22394</v>
+        <v>22404</v>
       </c>
       <c r="F29">
-        <v>22341</v>
+        <v>22362</v>
       </c>
       <c r="G29">
         <v>22359</v>
       </c>
       <c r="H29">
+        <v>22361</v>
+      </c>
+      <c r="I29">
         <v>22356</v>
       </c>
-      <c r="I29">
-        <v>22355</v>
-      </c>
       <c r="J29">
-        <v>22427</v>
+        <v>22342</v>
       </c>
       <c r="K29">
-        <v>22404</v>
+        <v>22394</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1679,34 +1676,34 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>22416</v>
+        <v>22400</v>
       </c>
       <c r="C30">
-        <v>22378</v>
+        <v>22358</v>
       </c>
       <c r="D30">
-        <v>22405</v>
+        <v>22369</v>
       </c>
       <c r="E30">
         <v>22363</v>
       </c>
       <c r="F30">
+        <v>22346</v>
+      </c>
+      <c r="G30">
         <v>22385</v>
       </c>
-      <c r="G30">
-        <v>22346</v>
-      </c>
       <c r="H30">
-        <v>22400</v>
+        <v>22405</v>
       </c>
       <c r="I30">
-        <v>22424</v>
+        <v>22427</v>
       </c>
       <c r="J30">
-        <v>22352</v>
+        <v>22393</v>
       </c>
       <c r="K30">
-        <v>22393</v>
+        <v>22416</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1714,22 +1711,22 @@
         <v>30</v>
       </c>
       <c r="B31">
+        <v>22367</v>
+      </c>
+      <c r="C31">
+        <v>22366</v>
+      </c>
+      <c r="D31">
+        <v>22365</v>
+      </c>
+      <c r="E31">
         <v>22380</v>
-      </c>
-      <c r="C31">
-        <v>22367</v>
-      </c>
-      <c r="D31">
-        <v>22366</v>
-      </c>
-      <c r="E31">
-        <v>22365</v>
       </c>
       <c r="F31">
         <v>22388</v>
       </c>
       <c r="G31">
-        <v>22396</v>
+        <v>22348</v>
       </c>
       <c r="H31">
         <v>22384</v>
@@ -1755,28 +1752,28 @@
         <v>22365</v>
       </c>
       <c r="D32">
+        <v>22409</v>
+      </c>
+      <c r="E32">
+        <v>22347</v>
+      </c>
+      <c r="F32">
+        <v>22411</v>
+      </c>
+      <c r="G32">
+        <v>22373</v>
+      </c>
+      <c r="H32">
         <v>22403</v>
       </c>
-      <c r="E32">
+      <c r="I32">
         <v>22393</v>
       </c>
-      <c r="F32">
-        <v>22373</v>
-      </c>
-      <c r="G32">
-        <v>22351</v>
-      </c>
-      <c r="H32">
-        <v>22387</v>
-      </c>
-      <c r="I32">
-        <v>22419</v>
-      </c>
       <c r="J32">
-        <v>22410</v>
+        <v>22382</v>
       </c>
       <c r="K32">
-        <v>22358</v>
+        <v>22422</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1784,34 +1781,34 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>22401</v>
+        <v>22387</v>
       </c>
       <c r="C33">
-        <v>22359</v>
+        <v>22417</v>
       </c>
       <c r="D33">
+        <v>22412</v>
+      </c>
+      <c r="E33">
+        <v>22346</v>
+      </c>
+      <c r="F33">
+        <v>22404</v>
+      </c>
+      <c r="G33">
+        <v>22416</v>
+      </c>
+      <c r="H33">
+        <v>22385</v>
+      </c>
+      <c r="I33">
+        <v>22369</v>
+      </c>
+      <c r="J33">
         <v>22352</v>
       </c>
-      <c r="E33">
-        <v>22341</v>
-      </c>
-      <c r="F33">
-        <v>22372</v>
-      </c>
-      <c r="G33">
-        <v>22385</v>
-      </c>
-      <c r="H33">
+      <c r="K33">
         <v>22350</v>
-      </c>
-      <c r="I33">
-        <v>22427</v>
-      </c>
-      <c r="J33">
-        <v>22404</v>
-      </c>
-      <c r="K33">
-        <v>22412</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1819,34 +1816,34 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>22342</v>
+        <v>22402</v>
       </c>
       <c r="C34">
+        <v>22405</v>
+      </c>
+      <c r="D34">
+        <v>22393</v>
+      </c>
+      <c r="E34">
+        <v>22408</v>
+      </c>
+      <c r="F34">
+        <v>22400</v>
+      </c>
+      <c r="G34">
+        <v>22385</v>
+      </c>
+      <c r="H34">
+        <v>22394</v>
+      </c>
+      <c r="I34">
         <v>22357</v>
       </c>
-      <c r="D34">
-        <v>22385</v>
-      </c>
-      <c r="E34">
-        <v>22427</v>
-      </c>
-      <c r="F34">
-        <v>22408</v>
-      </c>
-      <c r="G34">
+      <c r="J34">
         <v>22341</v>
       </c>
-      <c r="H34">
-        <v>22393</v>
-      </c>
-      <c r="I34">
-        <v>22398</v>
-      </c>
-      <c r="J34">
-        <v>22402</v>
-      </c>
       <c r="K34">
-        <v>22394</v>
+        <v>22426</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1854,34 +1851,34 @@
         <v>34</v>
       </c>
       <c r="B35">
+        <v>22352</v>
+      </c>
+      <c r="C35">
+        <v>22419</v>
+      </c>
+      <c r="D35">
+        <v>22369</v>
+      </c>
+      <c r="E35">
+        <v>22359</v>
+      </c>
+      <c r="F35">
+        <v>22409</v>
+      </c>
+      <c r="G35">
+        <v>22406</v>
+      </c>
+      <c r="H35">
+        <v>22403</v>
+      </c>
+      <c r="I35">
+        <v>22351</v>
+      </c>
+      <c r="J35">
+        <v>22372</v>
+      </c>
+      <c r="K35">
         <v>22389</v>
-      </c>
-      <c r="C35">
-        <v>22424</v>
-      </c>
-      <c r="D35">
-        <v>22403</v>
-      </c>
-      <c r="E35">
-        <v>22372</v>
-      </c>
-      <c r="F35">
-        <v>22419</v>
-      </c>
-      <c r="G35">
-        <v>22423</v>
-      </c>
-      <c r="H35">
-        <v>22417</v>
-      </c>
-      <c r="I35">
-        <v>22356</v>
-      </c>
-      <c r="J35">
-        <v>22415</v>
-      </c>
-      <c r="K35">
-        <v>22359</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1889,34 +1886,34 @@
         <v>35</v>
       </c>
       <c r="B36">
+        <v>22410</v>
+      </c>
+      <c r="C36">
+        <v>22395</v>
+      </c>
+      <c r="D36">
+        <v>22374</v>
+      </c>
+      <c r="E36">
+        <v>22372</v>
+      </c>
+      <c r="F36">
+        <v>22404</v>
+      </c>
+      <c r="G36">
+        <v>22424</v>
+      </c>
+      <c r="H36">
         <v>22349</v>
       </c>
-      <c r="C36">
-        <v>22404</v>
-      </c>
-      <c r="D36">
-        <v>22395</v>
-      </c>
-      <c r="E36">
+      <c r="I36">
+        <v>22416</v>
+      </c>
+      <c r="J36">
         <v>22422</v>
       </c>
-      <c r="F36">
-        <v>22410</v>
-      </c>
-      <c r="G36">
-        <v>22374</v>
-      </c>
-      <c r="H36">
-        <v>22424</v>
-      </c>
-      <c r="I36">
-        <v>22359</v>
-      </c>
-      <c r="J36">
-        <v>22365</v>
-      </c>
       <c r="K36">
-        <v>22401</v>
+        <v>22412</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1924,34 +1921,34 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>22341</v>
+        <v>22376</v>
       </c>
       <c r="C37">
+        <v>22346</v>
+      </c>
+      <c r="D37">
         <v>22404</v>
       </c>
-      <c r="D37">
-        <v>22376</v>
-      </c>
       <c r="E37">
-        <v>22417</v>
+        <v>22369</v>
       </c>
       <c r="F37">
+        <v>22343</v>
+      </c>
+      <c r="G37">
+        <v>22372</v>
+      </c>
+      <c r="H37">
+        <v>22373</v>
+      </c>
+      <c r="I37">
+        <v>22351</v>
+      </c>
+      <c r="J37">
+        <v>22423</v>
+      </c>
+      <c r="K37">
         <v>22411</v>
-      </c>
-      <c r="G37">
-        <v>22403</v>
-      </c>
-      <c r="H37">
-        <v>22359</v>
-      </c>
-      <c r="I37">
-        <v>22373</v>
-      </c>
-      <c r="J37">
-        <v>22422</v>
-      </c>
-      <c r="K37">
-        <v>22393</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1959,7 +1956,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>22344</v>
+        <v>22406</v>
       </c>
       <c r="C38">
         <v>22358</v>
@@ -1968,19 +1965,19 @@
         <v>22416</v>
       </c>
       <c r="E38">
+        <v>22407</v>
+      </c>
+      <c r="F38">
+        <v>22426</v>
+      </c>
+      <c r="G38">
+        <v>22344</v>
+      </c>
+      <c r="H38">
         <v>22352</v>
       </c>
-      <c r="F38">
-        <v>22377</v>
-      </c>
-      <c r="G38">
-        <v>22426</v>
-      </c>
-      <c r="H38">
+      <c r="I38">
         <v>22413</v>
-      </c>
-      <c r="I38">
-        <v>22407</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1988,34 +1985,34 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>22420</v>
+        <v>22364</v>
       </c>
       <c r="C39">
-        <v>22413</v>
+        <v>22415</v>
       </c>
       <c r="D39">
+        <v>22344</v>
+      </c>
+      <c r="E39">
         <v>22399</v>
       </c>
-      <c r="E39">
-        <v>22364</v>
-      </c>
       <c r="F39">
-        <v>22415</v>
+        <v>22406</v>
       </c>
       <c r="G39">
-        <v>22344</v>
+        <v>22376</v>
       </c>
       <c r="H39">
-        <v>22376</v>
+        <v>22411</v>
       </c>
       <c r="I39">
         <v>22351</v>
       </c>
       <c r="J39">
+        <v>22413</v>
+      </c>
+      <c r="K39">
         <v>22352</v>
-      </c>
-      <c r="K39">
-        <v>22411</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2023,31 +2020,31 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>22368</v>
+        <v>22421</v>
       </c>
       <c r="C40">
-        <v>22421</v>
+        <v>22426</v>
       </c>
       <c r="D40">
-        <v>22398</v>
+        <v>22341</v>
       </c>
       <c r="E40">
+        <v>22394</v>
+      </c>
+      <c r="F40">
         <v>22427</v>
-      </c>
-      <c r="F40">
-        <v>22341</v>
       </c>
       <c r="G40">
         <v>22413</v>
       </c>
       <c r="H40">
-        <v>22426</v>
+        <v>22405</v>
       </c>
       <c r="I40">
-        <v>22394</v>
+        <v>22398</v>
       </c>
       <c r="J40">
-        <v>22405</v>
+        <v>22368</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2055,34 +2052,34 @@
         <v>40</v>
       </c>
       <c r="B41">
+        <v>22341</v>
+      </c>
+      <c r="C41">
+        <v>22385</v>
+      </c>
+      <c r="D41">
+        <v>22405</v>
+      </c>
+      <c r="E41">
+        <v>22342</v>
+      </c>
+      <c r="F41">
         <v>22408</v>
       </c>
-      <c r="C41">
-        <v>22341</v>
-      </c>
-      <c r="D41">
-        <v>22393</v>
-      </c>
-      <c r="E41">
-        <v>22385</v>
-      </c>
-      <c r="F41">
-        <v>22427</v>
-      </c>
       <c r="G41">
-        <v>22342</v>
+        <v>22391</v>
       </c>
       <c r="H41">
         <v>22398</v>
       </c>
       <c r="I41">
-        <v>22391</v>
+        <v>22357</v>
       </c>
       <c r="J41">
+        <v>22426</v>
+      </c>
+      <c r="K41">
         <v>22394</v>
-      </c>
-      <c r="K41">
-        <v>22357</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2090,31 +2087,31 @@
         <v>41</v>
       </c>
       <c r="B42">
+        <v>22416</v>
+      </c>
+      <c r="C42">
+        <v>22352</v>
+      </c>
+      <c r="D42">
+        <v>22400</v>
+      </c>
+      <c r="E42">
+        <v>22426</v>
+      </c>
+      <c r="F42">
+        <v>22358</v>
+      </c>
+      <c r="G42">
+        <v>22363</v>
+      </c>
+      <c r="H42">
         <v>22412</v>
       </c>
-      <c r="C42">
-        <v>22400</v>
-      </c>
-      <c r="D42">
-        <v>22358</v>
-      </c>
-      <c r="E42">
-        <v>22352</v>
-      </c>
-      <c r="F42">
-        <v>22416</v>
-      </c>
-      <c r="G42">
+      <c r="I42">
         <v>22359</v>
       </c>
-      <c r="H42">
-        <v>22426</v>
-      </c>
-      <c r="I42">
-        <v>22363</v>
-      </c>
       <c r="J42">
-        <v>22409</v>
+        <v>22406</v>
       </c>
       <c r="K42">
         <v>22423</v>
@@ -2128,13 +2125,13 @@
         <v>22382</v>
       </c>
       <c r="C43">
+        <v>22365</v>
+      </c>
+      <c r="D43">
+        <v>22374</v>
+      </c>
+      <c r="E43">
         <v>22389</v>
-      </c>
-      <c r="D43">
-        <v>22365</v>
-      </c>
-      <c r="E43">
-        <v>22374</v>
       </c>
       <c r="F43">
         <v>22369</v>
@@ -2148,16 +2145,16 @@
         <v>22413</v>
       </c>
       <c r="C44">
+        <v>22426</v>
+      </c>
+      <c r="D44">
+        <v>22368</v>
+      </c>
+      <c r="E44">
         <v>22405</v>
       </c>
-      <c r="D44">
+      <c r="F44">
         <v>22398</v>
-      </c>
-      <c r="E44">
-        <v>22341</v>
-      </c>
-      <c r="F44">
-        <v>22427</v>
       </c>
       <c r="G44">
         <v>22421</v>
@@ -2166,10 +2163,10 @@
         <v>22394</v>
       </c>
       <c r="I44">
-        <v>22368</v>
+        <v>22427</v>
       </c>
       <c r="J44">
-        <v>22426</v>
+        <v>22341</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2177,34 +2174,34 @@
         <v>44</v>
       </c>
       <c r="B45">
+        <v>22368</v>
+      </c>
+      <c r="C45">
+        <v>22426</v>
+      </c>
+      <c r="D45">
+        <v>22411</v>
+      </c>
+      <c r="E45">
         <v>22421</v>
       </c>
-      <c r="C45">
-        <v>22427</v>
-      </c>
-      <c r="D45">
-        <v>22341</v>
-      </c>
-      <c r="E45">
-        <v>22368</v>
-      </c>
       <c r="F45">
-        <v>22398</v>
+        <v>22356</v>
       </c>
       <c r="G45">
         <v>22351</v>
       </c>
       <c r="H45">
-        <v>22415</v>
+        <v>22374</v>
       </c>
       <c r="I45">
-        <v>22394</v>
+        <v>22358</v>
       </c>
       <c r="J45">
-        <v>22365</v>
+        <v>22413</v>
       </c>
       <c r="K45">
-        <v>22404</v>
+        <v>22416</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2212,34 +2209,34 @@
         <v>45</v>
       </c>
       <c r="B46">
+        <v>22366</v>
+      </c>
+      <c r="C46">
+        <v>22369</v>
+      </c>
+      <c r="D46">
+        <v>22408</v>
+      </c>
+      <c r="E46">
+        <v>22392</v>
+      </c>
+      <c r="F46">
+        <v>22409</v>
+      </c>
+      <c r="G46">
+        <v>22385</v>
+      </c>
+      <c r="H46">
+        <v>22394</v>
+      </c>
+      <c r="I46">
+        <v>22427</v>
+      </c>
+      <c r="J46">
+        <v>22346</v>
+      </c>
+      <c r="K46">
         <v>22419</v>
-      </c>
-      <c r="C46">
-        <v>22426</v>
-      </c>
-      <c r="D46">
-        <v>22346</v>
-      </c>
-      <c r="E46">
-        <v>22375</v>
-      </c>
-      <c r="F46">
-        <v>22404</v>
-      </c>
-      <c r="G46">
-        <v>22355</v>
-      </c>
-      <c r="H46">
-        <v>22366</v>
-      </c>
-      <c r="I46">
-        <v>22394</v>
-      </c>
-      <c r="J46">
-        <v>22385</v>
-      </c>
-      <c r="K46">
-        <v>22341</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2247,34 +2244,34 @@
         <v>46</v>
       </c>
       <c r="B47">
+        <v>22409</v>
+      </c>
+      <c r="C47">
+        <v>22394</v>
+      </c>
+      <c r="D47">
         <v>22352</v>
       </c>
-      <c r="C47">
+      <c r="E47">
+        <v>22404</v>
+      </c>
+      <c r="F47">
+        <v>22400</v>
+      </c>
+      <c r="G47">
         <v>22346</v>
       </c>
-      <c r="D47">
+      <c r="H47">
         <v>22415</v>
       </c>
-      <c r="E47">
+      <c r="I47">
         <v>22385</v>
       </c>
-      <c r="F47">
-        <v>22398</v>
-      </c>
-      <c r="G47">
+      <c r="J47">
+        <v>22369</v>
+      </c>
+      <c r="K47">
         <v>22342</v>
-      </c>
-      <c r="H47">
-        <v>22394</v>
-      </c>
-      <c r="I47">
-        <v>22404</v>
-      </c>
-      <c r="J47">
-        <v>22341</v>
-      </c>
-      <c r="K47">
-        <v>22393</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2282,34 +2279,34 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>22359</v>
+        <v>22425</v>
       </c>
       <c r="C48">
-        <v>22402</v>
+        <v>22385</v>
       </c>
       <c r="D48">
-        <v>22363</v>
+        <v>22409</v>
       </c>
       <c r="E48">
-        <v>22394</v>
+        <v>22404</v>
       </c>
       <c r="F48">
+        <v>22357</v>
+      </c>
+      <c r="G48">
+        <v>22369</v>
+      </c>
+      <c r="H48">
+        <v>22346</v>
+      </c>
+      <c r="I48">
+        <v>22352</v>
+      </c>
+      <c r="J48">
         <v>22351</v>
       </c>
-      <c r="G48">
-        <v>22385</v>
-      </c>
-      <c r="H48">
-        <v>22425</v>
-      </c>
-      <c r="I48">
-        <v>22341</v>
-      </c>
-      <c r="J48">
-        <v>22404</v>
-      </c>
       <c r="K48">
-        <v>22357</v>
+        <v>22374</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2337,34 +2334,34 @@
         <v>49</v>
       </c>
       <c r="B50">
+        <v>22411</v>
+      </c>
+      <c r="C50">
+        <v>22394</v>
+      </c>
+      <c r="D50">
+        <v>22415</v>
+      </c>
+      <c r="E50">
+        <v>22365</v>
+      </c>
+      <c r="F50">
+        <v>22352</v>
+      </c>
+      <c r="G50">
+        <v>22413</v>
+      </c>
+      <c r="H50">
+        <v>22427</v>
+      </c>
+      <c r="I50">
         <v>22351</v>
       </c>
-      <c r="C50">
+      <c r="J50">
         <v>22398</v>
       </c>
-      <c r="D50">
-        <v>22374</v>
-      </c>
-      <c r="E50">
+      <c r="K50">
         <v>22404</v>
-      </c>
-      <c r="F50">
-        <v>22365</v>
-      </c>
-      <c r="G50">
-        <v>22415</v>
-      </c>
-      <c r="H50">
-        <v>22413</v>
-      </c>
-      <c r="I50">
-        <v>22416</v>
-      </c>
-      <c r="J50">
-        <v>22368</v>
-      </c>
-      <c r="K50">
-        <v>22427</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2372,34 +2369,34 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>22422</v>
+        <v>22397</v>
       </c>
       <c r="C51">
+        <v>22342</v>
+      </c>
+      <c r="D51">
+        <v>22401</v>
+      </c>
+      <c r="E51">
+        <v>22412</v>
+      </c>
+      <c r="F51">
+        <v>22423</v>
+      </c>
+      <c r="G51">
         <v>22403</v>
-      </c>
-      <c r="D51">
-        <v>22424</v>
-      </c>
-      <c r="E51">
-        <v>22395</v>
-      </c>
-      <c r="F51">
-        <v>22342</v>
-      </c>
-      <c r="G51">
-        <v>22401</v>
       </c>
       <c r="H51">
         <v>22393</v>
       </c>
       <c r="I51">
-        <v>22427</v>
+        <v>22399</v>
       </c>
       <c r="J51">
-        <v>22399</v>
+        <v>22417</v>
       </c>
       <c r="K51">
-        <v>22378</v>
+        <v>22352</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2407,34 +2404,34 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>22357</v>
+        <v>22398</v>
       </c>
       <c r="C52">
-        <v>22342</v>
+        <v>22426</v>
       </c>
       <c r="D52">
         <v>22427</v>
       </c>
       <c r="E52">
-        <v>22393</v>
+        <v>22342</v>
       </c>
       <c r="F52">
-        <v>22378</v>
+        <v>22400</v>
       </c>
       <c r="G52">
+        <v>22394</v>
+      </c>
+      <c r="H52">
+        <v>22402</v>
+      </c>
+      <c r="I52">
+        <v>22357</v>
+      </c>
+      <c r="J52">
         <v>22408</v>
       </c>
-      <c r="H52">
-        <v>22394</v>
-      </c>
-      <c r="I52">
-        <v>22363</v>
-      </c>
-      <c r="J52">
-        <v>22341</v>
-      </c>
       <c r="K52">
-        <v>22426</v>
+        <v>22405</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2442,34 +2439,34 @@
         <v>52</v>
       </c>
       <c r="B53">
+        <v>22386</v>
+      </c>
+      <c r="C53">
+        <v>22346</v>
+      </c>
+      <c r="D53">
+        <v>22369</v>
+      </c>
+      <c r="E53">
         <v>22384</v>
       </c>
-      <c r="C53">
-        <v>22359</v>
-      </c>
-      <c r="D53">
-        <v>22379</v>
-      </c>
-      <c r="E53">
-        <v>22341</v>
-      </c>
       <c r="F53">
-        <v>22404</v>
+        <v>22385</v>
       </c>
       <c r="G53">
-        <v>22365</v>
+        <v>22342</v>
       </c>
       <c r="H53">
-        <v>22427</v>
+        <v>22372</v>
       </c>
       <c r="I53">
-        <v>22342</v>
+        <v>22350</v>
       </c>
       <c r="J53">
         <v>22355</v>
       </c>
       <c r="K53">
-        <v>22372</v>
+        <v>22388</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2477,28 +2474,28 @@
         <v>53</v>
       </c>
       <c r="B54">
+        <v>22385</v>
+      </c>
+      <c r="C54">
         <v>22391</v>
       </c>
-      <c r="C54">
+      <c r="D54">
+        <v>22394</v>
+      </c>
+      <c r="E54">
+        <v>22400</v>
+      </c>
+      <c r="F54">
+        <v>22405</v>
+      </c>
+      <c r="G54">
         <v>22398</v>
-      </c>
-      <c r="D54">
-        <v>22357</v>
-      </c>
-      <c r="E54">
-        <v>22405</v>
-      </c>
-      <c r="F54">
-        <v>22400</v>
-      </c>
-      <c r="G54">
-        <v>22341</v>
       </c>
       <c r="H54">
         <v>22427</v>
       </c>
       <c r="I54">
-        <v>22408</v>
+        <v>22341</v>
       </c>
       <c r="J54">
         <v>22393</v>
@@ -2515,31 +2512,31 @@
         <v>22345</v>
       </c>
       <c r="C55">
-        <v>22367</v>
+        <v>22346</v>
       </c>
       <c r="D55">
         <v>22350</v>
       </c>
       <c r="E55">
-        <v>22346</v>
+        <v>22367</v>
       </c>
       <c r="F55">
+        <v>22369</v>
+      </c>
+      <c r="G55">
+        <v>22416</v>
+      </c>
+      <c r="H55">
         <v>22412</v>
       </c>
-      <c r="G55">
+      <c r="I55">
+        <v>22386</v>
+      </c>
+      <c r="J55">
+        <v>22404</v>
+      </c>
+      <c r="K55">
         <v>22397</v>
-      </c>
-      <c r="H55">
-        <v>22359</v>
-      </c>
-      <c r="I55">
-        <v>22372</v>
-      </c>
-      <c r="J55">
-        <v>22387</v>
-      </c>
-      <c r="K55">
-        <v>22366</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2547,34 +2544,34 @@
         <v>55</v>
       </c>
       <c r="B56">
+        <v>22403</v>
+      </c>
+      <c r="C56">
         <v>22372</v>
       </c>
-      <c r="C56">
-        <v>22350</v>
-      </c>
       <c r="D56">
-        <v>22365</v>
+        <v>22346</v>
       </c>
       <c r="E56">
-        <v>22347</v>
+        <v>22359</v>
       </c>
       <c r="F56">
-        <v>22359</v>
+        <v>22414</v>
       </c>
       <c r="G56">
+        <v>22349</v>
+      </c>
+      <c r="H56">
         <v>22419</v>
       </c>
-      <c r="H56">
-        <v>22415</v>
-      </c>
       <c r="I56">
-        <v>22404</v>
+        <v>22409</v>
       </c>
       <c r="J56">
-        <v>22416</v>
+        <v>22423</v>
       </c>
       <c r="K56">
-        <v>22423</v>
+        <v>22369</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2585,31 +2582,31 @@
         <v>22395</v>
       </c>
       <c r="C57">
-        <v>22393</v>
+        <v>22412</v>
       </c>
       <c r="D57">
         <v>22424</v>
       </c>
       <c r="E57">
+        <v>22349</v>
+      </c>
+      <c r="F57">
         <v>22387</v>
       </c>
-      <c r="F57">
+      <c r="G57">
+        <v>22404</v>
+      </c>
+      <c r="H57">
+        <v>22372</v>
+      </c>
+      <c r="I57">
         <v>22351</v>
       </c>
-      <c r="G57">
+      <c r="J57">
+        <v>22423</v>
+      </c>
+      <c r="K57">
         <v>22401</v>
-      </c>
-      <c r="H57">
-        <v>22423</v>
-      </c>
-      <c r="I57">
-        <v>22378</v>
-      </c>
-      <c r="J57">
-        <v>22404</v>
-      </c>
-      <c r="K57">
-        <v>22416</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2623,28 +2620,28 @@
         <v>22372</v>
       </c>
       <c r="D58">
+        <v>22376</v>
+      </c>
+      <c r="E58">
+        <v>22410</v>
+      </c>
+      <c r="F58">
+        <v>22356</v>
+      </c>
+      <c r="G58">
+        <v>22406</v>
+      </c>
+      <c r="H58">
+        <v>22416</v>
+      </c>
+      <c r="I58">
+        <v>22412</v>
+      </c>
+      <c r="J58">
+        <v>22387</v>
+      </c>
+      <c r="K58">
         <v>22359</v>
-      </c>
-      <c r="E58">
-        <v>22356</v>
-      </c>
-      <c r="F58">
-        <v>22410</v>
-      </c>
-      <c r="G58">
-        <v>22416</v>
-      </c>
-      <c r="H58">
-        <v>22350</v>
-      </c>
-      <c r="I58">
-        <v>22422</v>
-      </c>
-      <c r="J58">
-        <v>22424</v>
-      </c>
-      <c r="K58">
-        <v>22376</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2652,34 +2649,34 @@
         <v>58</v>
       </c>
       <c r="B59">
+        <v>22394</v>
+      </c>
+      <c r="C59">
+        <v>22393</v>
+      </c>
+      <c r="D59">
+        <v>22426</v>
+      </c>
+      <c r="E59">
+        <v>22408</v>
+      </c>
+      <c r="F59">
+        <v>22357</v>
+      </c>
+      <c r="G59">
         <v>22385</v>
       </c>
-      <c r="C59">
-        <v>22405</v>
-      </c>
-      <c r="D59">
-        <v>22393</v>
-      </c>
-      <c r="E59">
-        <v>22357</v>
-      </c>
-      <c r="F59">
+      <c r="H59">
+        <v>22398</v>
+      </c>
+      <c r="I59">
         <v>22342</v>
       </c>
-      <c r="G59">
-        <v>22394</v>
-      </c>
-      <c r="H59">
+      <c r="J59">
+        <v>22402</v>
+      </c>
+      <c r="K59">
         <v>22400</v>
-      </c>
-      <c r="I59">
-        <v>22341</v>
-      </c>
-      <c r="J59">
-        <v>22427</v>
-      </c>
-      <c r="K59">
-        <v>22408</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2687,34 +2684,31 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>22406</v>
+        <v>22391</v>
       </c>
       <c r="C60">
-        <v>22373</v>
+        <v>22423</v>
       </c>
       <c r="D60">
-        <v>22401</v>
+        <v>22419</v>
       </c>
       <c r="E60">
-        <v>22389</v>
+        <v>22343</v>
       </c>
       <c r="F60">
-        <v>22374</v>
+        <v>22365</v>
       </c>
       <c r="G60">
-        <v>22371</v>
+        <v>22352</v>
       </c>
       <c r="H60">
-        <v>22403</v>
+        <v>22342</v>
       </c>
       <c r="I60">
-        <v>22343</v>
+        <v>22400</v>
       </c>
       <c r="J60">
-        <v>22414</v>
-      </c>
-      <c r="K60">
-        <v>22412</v>
+        <v>22358</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2722,31 +2716,34 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>22343</v>
+        <v>22347</v>
       </c>
       <c r="C61">
-        <v>22419</v>
+        <v>22414</v>
       </c>
       <c r="D61">
-        <v>22342</v>
+        <v>22395</v>
       </c>
       <c r="E61">
-        <v>22358</v>
+        <v>22389</v>
       </c>
       <c r="F61">
-        <v>22365</v>
+        <v>22423</v>
       </c>
       <c r="G61">
-        <v>22400</v>
+        <v>22404</v>
       </c>
       <c r="H61">
-        <v>22391</v>
+        <v>22415</v>
       </c>
       <c r="I61">
-        <v>22423</v>
+        <v>22422</v>
       </c>
       <c r="J61">
-        <v>22352</v>
+        <v>22350</v>
+      </c>
+      <c r="K61">
+        <v>22359</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2754,34 +2751,34 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>22358</v>
+        <v>22408</v>
       </c>
       <c r="C62">
-        <v>22414</v>
+        <v>22398</v>
       </c>
       <c r="D62">
-        <v>22403</v>
+        <v>22400</v>
       </c>
       <c r="E62">
-        <v>22389</v>
+        <v>22427</v>
       </c>
       <c r="F62">
-        <v>22359</v>
+        <v>22363</v>
       </c>
       <c r="G62">
-        <v>22401</v>
+        <v>22357</v>
       </c>
       <c r="H62">
-        <v>22352</v>
+        <v>22405</v>
       </c>
       <c r="I62">
-        <v>22387</v>
+        <v>22342</v>
       </c>
       <c r="J62">
-        <v>22374</v>
+        <v>22394</v>
       </c>
       <c r="K62">
-        <v>22388</v>
+        <v>22385</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2789,34 +2786,34 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>22363</v>
+        <v>22346</v>
       </c>
       <c r="C63">
+        <v>22425</v>
+      </c>
+      <c r="D63">
         <v>22385</v>
       </c>
-      <c r="D63">
-        <v>22400</v>
-      </c>
       <c r="E63">
+        <v>22411</v>
+      </c>
+      <c r="F63">
         <v>22394</v>
       </c>
-      <c r="F63">
-        <v>22391</v>
-      </c>
       <c r="G63">
-        <v>22398</v>
+        <v>22357</v>
       </c>
       <c r="H63">
-        <v>22408</v>
+        <v>22423</v>
       </c>
       <c r="I63">
-        <v>22378</v>
+        <v>22404</v>
       </c>
       <c r="J63">
-        <v>22342</v>
+        <v>22419</v>
       </c>
       <c r="K63">
-        <v>22405</v>
+        <v>22351</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2824,34 +2821,34 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>22425</v>
+        <v>22424</v>
       </c>
       <c r="C64">
+        <v>22342</v>
+      </c>
+      <c r="D64">
+        <v>22357</v>
+      </c>
+      <c r="E64">
+        <v>22359</v>
+      </c>
+      <c r="F64">
         <v>22394</v>
       </c>
-      <c r="D64">
-        <v>22346</v>
-      </c>
-      <c r="E64">
+      <c r="G64">
+        <v>22374</v>
+      </c>
+      <c r="H64">
+        <v>22404</v>
+      </c>
+      <c r="I64">
+        <v>22400</v>
+      </c>
+      <c r="J64">
         <v>22423</v>
       </c>
-      <c r="F64">
-        <v>22419</v>
-      </c>
-      <c r="G64">
-        <v>22385</v>
-      </c>
-      <c r="H64">
+      <c r="K64">
         <v>22351</v>
-      </c>
-      <c r="I64">
-        <v>22404</v>
-      </c>
-      <c r="J64">
-        <v>22357</v>
-      </c>
-      <c r="K64">
-        <v>22389</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2859,34 +2856,34 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>22424</v>
+        <v>22396</v>
       </c>
       <c r="C65">
-        <v>22404</v>
+        <v>22346</v>
       </c>
       <c r="D65">
         <v>22356</v>
       </c>
       <c r="E65">
-        <v>22351</v>
+        <v>22341</v>
       </c>
       <c r="F65">
-        <v>22352</v>
+        <v>22408</v>
       </c>
       <c r="G65">
-        <v>22357</v>
+        <v>22361</v>
       </c>
       <c r="H65">
         <v>22359</v>
       </c>
       <c r="I65">
-        <v>22389</v>
+        <v>22374</v>
       </c>
       <c r="J65">
-        <v>22394</v>
+        <v>22383</v>
       </c>
       <c r="K65">
-        <v>22393</v>
+        <v>22425</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2894,34 +2891,34 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>22354</v>
+        <v>22344</v>
       </c>
       <c r="C66">
-        <v>22356</v>
+        <v>22415</v>
       </c>
       <c r="D66">
-        <v>22425</v>
+        <v>22399</v>
       </c>
       <c r="E66">
-        <v>22341</v>
+        <v>22374</v>
       </c>
       <c r="F66">
-        <v>22359</v>
+        <v>22365</v>
       </c>
       <c r="G66">
-        <v>22381</v>
+        <v>22404</v>
       </c>
       <c r="H66">
-        <v>22355</v>
+        <v>22416</v>
       </c>
       <c r="I66">
-        <v>22404</v>
+        <v>22411</v>
       </c>
       <c r="J66">
-        <v>22398</v>
+        <v>22352</v>
       </c>
       <c r="K66">
-        <v>22346</v>
+        <v>22358</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2929,34 +2926,34 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>22411</v>
+        <v>22427</v>
       </c>
       <c r="C67">
-        <v>22352</v>
+        <v>22357</v>
       </c>
       <c r="D67">
-        <v>22416</v>
+        <v>22408</v>
       </c>
       <c r="E67">
-        <v>22399</v>
+        <v>22402</v>
       </c>
       <c r="F67">
-        <v>22365</v>
+        <v>22393</v>
       </c>
       <c r="G67">
-        <v>22358</v>
+        <v>22398</v>
       </c>
       <c r="H67">
-        <v>22344</v>
+        <v>22342</v>
       </c>
       <c r="I67">
-        <v>22415</v>
+        <v>22405</v>
       </c>
       <c r="J67">
-        <v>22374</v>
+        <v>22400</v>
       </c>
       <c r="K67">
-        <v>22404</v>
+        <v>22385</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2964,34 +2961,34 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>22400</v>
+        <v>22415</v>
       </c>
       <c r="C68">
-        <v>22393</v>
+        <v>22346</v>
       </c>
       <c r="D68">
-        <v>22394</v>
+        <v>22358</v>
       </c>
       <c r="E68">
-        <v>22357</v>
+        <v>22350</v>
       </c>
       <c r="F68">
-        <v>22378</v>
+        <v>22359</v>
       </c>
       <c r="G68">
-        <v>22341</v>
+        <v>22423</v>
       </c>
       <c r="H68">
-        <v>22405</v>
+        <v>22416</v>
       </c>
       <c r="I68">
-        <v>22427</v>
+        <v>22409</v>
       </c>
       <c r="J68">
-        <v>22385</v>
+        <v>22351</v>
       </c>
       <c r="K68">
-        <v>22342</v>
+        <v>22389</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2999,34 +2996,34 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>22387</v>
+        <v>22373</v>
       </c>
       <c r="C69">
-        <v>22412</v>
+        <v>22359</v>
       </c>
       <c r="D69">
-        <v>22351</v>
+        <v>22342</v>
       </c>
       <c r="E69">
-        <v>22359</v>
+        <v>22385</v>
       </c>
       <c r="F69">
-        <v>22423</v>
+        <v>22350</v>
       </c>
       <c r="G69">
-        <v>22358</v>
+        <v>22414</v>
       </c>
       <c r="H69">
-        <v>22419</v>
+        <v>22395</v>
       </c>
       <c r="I69">
-        <v>22415</v>
+        <v>22404</v>
       </c>
       <c r="J69">
-        <v>22373</v>
+        <v>22422</v>
       </c>
       <c r="K69">
-        <v>22389</v>
+        <v>22341</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3034,34 +3031,34 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>22373</v>
+        <v>22365</v>
       </c>
       <c r="C70">
-        <v>22359</v>
+        <v>22405</v>
       </c>
       <c r="D70">
-        <v>22395</v>
+        <v>22423</v>
       </c>
       <c r="E70">
-        <v>22342</v>
+        <v>22400</v>
       </c>
       <c r="F70">
-        <v>22341</v>
+        <v>22404</v>
       </c>
       <c r="G70">
-        <v>22414</v>
+        <v>22374</v>
       </c>
       <c r="H70">
-        <v>22404</v>
+        <v>22394</v>
       </c>
       <c r="I70">
-        <v>22343</v>
+        <v>22416</v>
       </c>
       <c r="J70">
-        <v>22350</v>
+        <v>22389</v>
       </c>
       <c r="K70">
-        <v>22422</v>
+        <v>22424</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3069,34 +3066,34 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>22365</v>
+        <v>22393</v>
       </c>
       <c r="C71">
-        <v>22341</v>
+        <v>22363</v>
       </c>
       <c r="D71">
+        <v>22385</v>
+      </c>
+      <c r="E71">
+        <v>22398</v>
+      </c>
+      <c r="F71">
         <v>22400</v>
       </c>
-      <c r="E71">
-        <v>22404</v>
-      </c>
-      <c r="F71">
-        <v>22393</v>
-      </c>
       <c r="G71">
-        <v>22398</v>
+        <v>22394</v>
       </c>
       <c r="H71">
-        <v>22394</v>
+        <v>22357</v>
       </c>
       <c r="I71">
+        <v>22342</v>
+      </c>
+      <c r="J71">
         <v>22427</v>
       </c>
-      <c r="J71">
-        <v>22424</v>
-      </c>
       <c r="K71">
-        <v>22423</v>
+        <v>22405</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3104,34 +3101,34 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>22398</v>
+        <v>22363</v>
       </c>
       <c r="C72">
+        <v>22394</v>
+      </c>
+      <c r="D72">
         <v>22385</v>
       </c>
-      <c r="D72">
+      <c r="E72">
+        <v>22426</v>
+      </c>
+      <c r="F72">
+        <v>22408</v>
+      </c>
+      <c r="G72">
+        <v>22405</v>
+      </c>
+      <c r="H72">
+        <v>22400</v>
+      </c>
+      <c r="I72">
+        <v>22357</v>
+      </c>
+      <c r="J72">
         <v>22341</v>
       </c>
-      <c r="E72">
-        <v>22405</v>
-      </c>
-      <c r="F72">
-        <v>22400</v>
-      </c>
-      <c r="G72">
-        <v>22393</v>
-      </c>
-      <c r="H72">
-        <v>22427</v>
-      </c>
-      <c r="I72">
-        <v>22342</v>
-      </c>
-      <c r="J72">
-        <v>22363</v>
-      </c>
       <c r="K72">
-        <v>22378</v>
+        <v>22391</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3139,34 +3136,19 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>22394</v>
+        <v>22369</v>
       </c>
       <c r="C73">
-        <v>22391</v>
+        <v>22374</v>
       </c>
       <c r="D73">
-        <v>22408</v>
+        <v>22389</v>
       </c>
       <c r="E73">
-        <v>22402</v>
+        <v>22365</v>
       </c>
       <c r="F73">
-        <v>22393</v>
-      </c>
-      <c r="G73">
-        <v>22341</v>
-      </c>
-      <c r="H73">
-        <v>22400</v>
-      </c>
-      <c r="I73">
-        <v>22357</v>
-      </c>
-      <c r="J73">
-        <v>22363</v>
-      </c>
-      <c r="K73">
-        <v>22405</v>
+        <v>22382</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3174,19 +3156,34 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>22369</v>
+        <v>22392</v>
       </c>
       <c r="C74">
-        <v>22365</v>
+        <v>22394</v>
       </c>
       <c r="D74">
-        <v>22389</v>
+        <v>22375</v>
       </c>
       <c r="E74">
-        <v>22382</v>
+        <v>22361</v>
       </c>
       <c r="F74">
-        <v>22374</v>
+        <v>22341</v>
+      </c>
+      <c r="G74">
+        <v>22385</v>
+      </c>
+      <c r="H74">
+        <v>22342</v>
+      </c>
+      <c r="I74">
+        <v>22426</v>
+      </c>
+      <c r="J74">
+        <v>22405</v>
+      </c>
+      <c r="K74">
+        <v>22418</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3194,34 +3191,34 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>22375</v>
+        <v>22426</v>
       </c>
       <c r="C75">
-        <v>22398</v>
+        <v>22393</v>
       </c>
       <c r="D75">
+        <v>22408</v>
+      </c>
+      <c r="E75">
+        <v>22400</v>
+      </c>
+      <c r="F75">
+        <v>22405</v>
+      </c>
+      <c r="G75">
+        <v>22357</v>
+      </c>
+      <c r="H75">
+        <v>22385</v>
+      </c>
+      <c r="I75">
+        <v>22342</v>
+      </c>
+      <c r="J75">
         <v>22394</v>
       </c>
-      <c r="E75">
-        <v>22418</v>
-      </c>
-      <c r="F75">
-        <v>22385</v>
-      </c>
-      <c r="G75">
-        <v>22342</v>
-      </c>
-      <c r="H75">
+      <c r="K75">
         <v>22341</v>
-      </c>
-      <c r="I75">
-        <v>22427</v>
-      </c>
-      <c r="J75">
-        <v>22426</v>
-      </c>
-      <c r="K75">
-        <v>22405</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3229,34 +3226,34 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>22405</v>
+        <v>22350</v>
       </c>
       <c r="C76">
         <v>22341</v>
       </c>
       <c r="D76">
-        <v>22400</v>
+        <v>22374</v>
       </c>
       <c r="E76">
-        <v>22357</v>
+        <v>22346</v>
       </c>
       <c r="F76">
-        <v>22378</v>
+        <v>22385</v>
       </c>
       <c r="G76">
+        <v>22351</v>
+      </c>
+      <c r="H76">
+        <v>22369</v>
+      </c>
+      <c r="I76">
+        <v>22397</v>
+      </c>
+      <c r="J76">
+        <v>22359</v>
+      </c>
+      <c r="K76">
         <v>22342</v>
-      </c>
-      <c r="H76">
-        <v>22427</v>
-      </c>
-      <c r="I76">
-        <v>22394</v>
-      </c>
-      <c r="J76">
-        <v>22385</v>
-      </c>
-      <c r="K76">
-        <v>22426</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3264,69 +3261,34 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>22346</v>
+        <v>22375</v>
       </c>
       <c r="C77">
-        <v>22412</v>
+        <v>22342</v>
       </c>
       <c r="D77">
-        <v>22385</v>
+        <v>22387</v>
       </c>
       <c r="E77">
-        <v>22351</v>
+        <v>22379</v>
       </c>
       <c r="F77">
-        <v>22341</v>
+        <v>22371</v>
       </c>
       <c r="G77">
-        <v>22342</v>
+        <v>22388</v>
       </c>
       <c r="H77">
-        <v>22372</v>
+        <v>22349</v>
       </c>
       <c r="I77">
         <v>22350</v>
       </c>
       <c r="J77">
-        <v>22359</v>
+        <v>22346</v>
       </c>
       <c r="K77">
-        <v>22401</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
-      <c r="A78" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B78">
-        <v>22367</v>
-      </c>
-      <c r="C78">
-        <v>22347</v>
-      </c>
-      <c r="D78">
-        <v>22359</v>
-      </c>
-      <c r="E78">
-        <v>22379</v>
-      </c>
-      <c r="F78">
-        <v>22412</v>
-      </c>
-      <c r="G78">
-        <v>22375</v>
-      </c>
-      <c r="H78">
-        <v>22346</v>
-      </c>
-      <c r="I78">
-        <v>22366</v>
-      </c>
-      <c r="J78">
         <v>22385</v>
-      </c>
-      <c r="K78">
-        <v>22342</v>
       </c>
     </row>
   </sheetData>
